--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed in Executions.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed in Executions.xlsx
@@ -446,8 +446,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="66" customWidth="1" min="1" max="1"/>
-    <col width="66" customWidth="1" min="2" max="2"/>
+    <col width="81" customWidth="1" min="1" max="1"/>
+    <col width="81" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleAndRunTestSuite-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleTestRunAndConfigureEnvironment-test-data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed in Executions.xlsx
+++ b/Test Data Driven/AI-Generated/TC18-Mark Test Results as Passed in Executions.xlsx
@@ -449,41 +449,41 @@
     <col width="78" customWidth="1" min="1" max="1"/>
     <col width="81" customWidth="1" min="2" max="2"/>
     <col width="81" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-    <col width="37" customWidth="1" min="8" max="8"/>
-    <col width="37" customWidth="1" min="9" max="9"/>
-    <col width="37" customWidth="1" min="10" max="10"/>
-    <col width="37" customWidth="1" min="11" max="11"/>
-    <col width="37" customWidth="1" min="12" max="12"/>
-    <col width="37" customWidth="1" min="13" max="13"/>
-    <col width="37" customWidth="1" min="14" max="14"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="36" customWidth="1" min="7" max="7"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="36" customWidth="1" min="10" max="10"/>
+    <col width="36" customWidth="1" min="11" max="11"/>
+    <col width="36" customWidth="1" min="12" max="12"/>
+    <col width="36" customWidth="1" min="13" max="13"/>
+    <col width="36" customWidth="1" min="14" max="14"/>
     <col width="112" customWidth="1" min="15" max="15"/>
     <col width="40" customWidth="1" min="16" max="16"/>
     <col width="42" customWidth="1" min="17" max="17"/>
     <col width="42" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="37" customWidth="1" min="21" max="21"/>
-    <col width="39" customWidth="1" min="22" max="22"/>
-    <col width="44" customWidth="1" min="23" max="23"/>
-    <col width="46" customWidth="1" min="24" max="24"/>
-    <col width="46" customWidth="1" min="25" max="25"/>
-    <col width="46" customWidth="1" min="26" max="26"/>
-    <col width="30" customWidth="1" min="27" max="27"/>
-    <col width="32" customWidth="1" min="28" max="28"/>
-    <col width="31" customWidth="1" min="29" max="29"/>
-    <col width="33" customWidth="1" min="30" max="30"/>
-    <col width="34" customWidth="1" min="31" max="31"/>
-    <col width="36" customWidth="1" min="32" max="32"/>
-    <col width="36" customWidth="1" min="33" max="33"/>
-    <col width="36" customWidth="1" min="34" max="34"/>
-    <col width="31" customWidth="1" min="35" max="35"/>
-    <col width="33" customWidth="1" min="36" max="36"/>
-    <col width="33" customWidth="1" min="37" max="37"/>
-    <col width="33" customWidth="1" min="38" max="38"/>
+    <col width="30" customWidth="1" min="21" max="21"/>
+    <col width="32" customWidth="1" min="22" max="22"/>
+    <col width="37" customWidth="1" min="23" max="23"/>
+    <col width="39" customWidth="1" min="24" max="24"/>
+    <col width="39" customWidth="1" min="25" max="25"/>
+    <col width="39" customWidth="1" min="26" max="26"/>
+    <col width="23" customWidth="1" min="27" max="27"/>
+    <col width="25" customWidth="1" min="28" max="28"/>
+    <col width="24" customWidth="1" min="29" max="29"/>
+    <col width="26" customWidth="1" min="30" max="30"/>
+    <col width="27" customWidth="1" min="31" max="31"/>
+    <col width="29" customWidth="1" min="32" max="32"/>
+    <col width="29" customWidth="1" min="33" max="33"/>
+    <col width="29" customWidth="1" min="34" max="34"/>
+    <col width="24" customWidth="1" min="35" max="35"/>
+    <col width="26" customWidth="1" min="36" max="36"/>
+    <col width="26" customWidth="1" min="37" max="37"/>
+    <col width="26" customWidth="1" min="38" max="38"/>
     <col width="35" customWidth="1" min="39" max="39"/>
     <col width="25" customWidth="1" min="40" max="40"/>
     <col width="22" customWidth="1" min="41" max="41"/>
@@ -495,13 +495,13 @@
     <col width="27" customWidth="1" min="47" max="47"/>
     <col width="22" customWidth="1" min="48" max="48"/>
     <col width="24" customWidth="1" min="49" max="49"/>
-    <col width="30" customWidth="1" min="50" max="50"/>
+    <col width="23" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_closeActions_class</t>
+          <t>button_closeAlert_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -516,57 +516,57 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName</t>
+          <t>div_testRun_internalRoleCellName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_1</t>
+          <t>div_testRun_internalRoleCellName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_10</t>
+          <t>div_testRun_internalRoleCellName_10</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_2</t>
+          <t>div_testRun_internalRoleCellName_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_3</t>
+          <t>div_testRun_internalRoleCellName_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_4</t>
+          <t>div_testRun_internalRoleCellName_4</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_5</t>
+          <t>div_testRun_internalRoleCellName_5</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_6</t>
+          <t>div_testRun_internalRoleCellName_6</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_7</t>
+          <t>div_testRun_internalRoleCellName_7</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_8</t>
+          <t>div_testRun_internalRoleCellName_8</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>div_testRuns_internalRoleCellName_9</t>
+          <t>div_testRun_internalRoleCellName_9</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -601,92 +601,92 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_executions_id</t>
+          <t>link_execution_executions_id</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_executions_id_1</t>
+          <t>link_execution_executions_id_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName</t>
+          <t>link_execution_internalRoleLinkName</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName_1</t>
+          <t>link_execution_internalRoleLinkName_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName_2</t>
+          <t>link_execution_internalRoleLinkName_2</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_internalRoleLinkName_3</t>
+          <t>link_execution_internalRoleLinkName_3</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_job_id</t>
+          <t>link_execution_job_id</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_job_id_1</t>
+          <t>link_execution_job_id_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_plan_id</t>
+          <t>link_execution_plan_id</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_plan_id_1</t>
+          <t>link_execution_plan_id_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id</t>
+          <t>link_execution_project_id</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id_1</t>
+          <t>link_execution_project_id_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id_2</t>
+          <t>link_execution_project_id_2</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_project_id_3</t>
+          <t>link_execution_project_id_3</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id</t>
+          <t>link_execution_team_id</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id_1</t>
+          <t>link_execution_team_id_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id_2</t>
+          <t>link_execution_team_id_2</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>link_executionDetails_team_id_3</t>
+          <t>link_execution_team_id_3</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>span_logItemContent_nthChild</t>
+          <t>span_logItem_nthChild</t>
         </is>
       </c>
     </row>
